--- a/Artefakte/Erfordernisse /WS2020_CobanMai_ErfordernisseAnalyse.xlsx
+++ b/Artefakte/Erfordernisse /WS2020_CobanMai_ErfordernisseAnalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deryacoban/Documents/GitHub/EPWS2020CobanMai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E8AAF1-775A-8D48-9AF9-67112C54FABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874FBF4B-37A4-FF4F-95C0-7998BA15DADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16280" xr2:uid="{2CFD7000-FB31-0544-B00A-7E2FC47B94FC}"/>
   </bookViews>
@@ -34,16 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">                                                                               Erfordernisse</t>
+  </si>
+  <si>
+    <t>Als jüngere Generation möchte man sein Wissen über neue Rezepte mitteilen, um die ältere Generation abholen zu können.</t>
+  </si>
+  <si>
+    <t>Als Familie muss man gemeinsam kochen, um den Zusammenhalt stärken zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer muss man genaue Angaben verfügbar haben, um das Rezept exakt nachkochen zu können.</t>
+  </si>
+  <si>
+    <t>Als ältere Generation möchte man ein einfach bedienbares System haben, um die Rezepte problemlos eintragen zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte man im System eine Erinnerung haben, um an wichtigen Tagen dementsprechend kochen zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte man ein mehrsprachiges System verfügbar haben, um das System möglichst multikulturell gestalten zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte man im System die Rezepte als Bilder und Videos verfügbar haben, um den Vorgang verständlicher gestalten zu können.</t>
+  </si>
+  <si>
+    <t>Als ältere Generation möchte man im System ein Diktat verfügbar haben, um das Hochladen der Rezepte vereinfachen zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte man im System bei einem neu hochgeladenen Rezept eine Benachrichtigung erhalten, um immer auf dem aktuellen Stand sein zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte man im System einen privaten Ordner verfügbar haben, um favorisierte Rezepte im Ordner direkt abspeichern zu können.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +83,11 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
@@ -77,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -406,37 +442,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98301F6D-D23F-9D45-B6E5-CB323ADF67F0}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="150.83203125" customWidth="1"/>
+    <col min="1" max="1" width="176.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
